--- a/biology/Microbiologie/Candidatus_Liberibacter/Candidatus_Liberibacter.xlsx
+++ b/biology/Microbiologie/Candidatus_Liberibacter/Candidatus_Liberibacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Candidatus Liberibacter  est un genre de bactéries à Gram négatif de la famille des Rhizobiaceae. 
 Le terme « Candidatus » indique qu'il n'a pas été possible de maintenir cette bactérie en culture. 
 La détection des Liberibacter est basée sur l'amplification par PCR de leurs gènes ARNr 16S avec des amorces spécifiques.
 Les espèces appartenant à ce genre sont des phytopathogènes, principalement transmis par des insectes vecteurs, les psylles.
-Le genre a été orthographié à l'origine Liberobacter[1]. 
+Le genre a été orthographié à l'origine Liberobacter. 
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (6 févr. 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (6 févr. 2013) :
 Candidatus Liberibacter africanus
 Candidatus Liberibacter americanus
 non-classé Candidatus Liberibacter americanus str. Sao Paulo
